--- a/models/result/VQ-VAE-resnet18-test2.xlsx
+++ b/models/result/VQ-VAE-resnet18-test2.xlsx
@@ -458,11 +458,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
+          <t>028-CDFE-00118-WJM-201908081530-D.bmp</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.813407506963017e-09</v>
+        <v>1.026322138386604e-08</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,59 +474,59 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
+          <t>029-CDFE-00046-QJW-201902261627-D.bmp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.85672161481898e-08</v>
+        <v>3.734669178356853e-07</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>021-SHZL-00369-ZHL-201811151050-D.bmp</t>
+          <t>0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9942983984947205</v>
+        <v>1.994412102135357e-08</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>029-CDFE-00022-LX-201901151400-D.bmp</t>
+          <t>021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.241607929448946e-08</v>
+        <v>4.334000095695956e-06</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>029-XAJD-00311-HXD-201911051539-D.bmp</t>
+          <t>0571-ZHJSH-00035-HJY-201807121224-D-R.bmp</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.821991315244304e-08</v>
+        <v>6.599110520255635e-07</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -538,59 +538,59 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
+          <t>0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.151029765533167e-07</v>
+        <v>1.09294967387541e-06</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
+          <t>021-SHZL-00255-WL-201807261001-D.bmp</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.351353316498717e-07</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>021-SHZL-00458-XXL-201907311054-D.bmp</t>
+          <t>0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>1.221733964484883e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
+          <t>028-CDFE-00122-CHX-201908291306-D.bmp</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.406785031576874e-06</v>
+        <v>0.1133849397301674</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -602,7 +602,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
+          <t>021-SHZL-00437-CRH-201906200909-D.bmp</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -618,43 +618,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
+          <t>029-XAJD-00148-WX-201807261131-D.bmp</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.467040058552811e-07</v>
+        <v>6.294201284617884e-07</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>021-SHZL-00121-XJF-201801310949-D.bmp</t>
+          <t>021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.996669081767322e-06</v>
+        <v>1.657878897276532e-06</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
+          <t>0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.33131662652886e-08</v>
+        <v>0.2453016489744186</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -666,14 +666,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>029-XAJD-00054-GWL-201805300818-D.bmp</t>
+          <t>029-XAJD-00171-YL-201808291030-D.bmp</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9883254766464233</v>
+        <v>3.014777405496716e-07</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -682,11 +682,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>028-CDFE-00099-LXQ-201906251127-D-L.bmp</t>
+          <t>0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.476866806626731e-08</v>
+        <v>1.327022971508995e-07</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -698,11 +698,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>023-CHQSY-00022-HCHW-201808221015-D.bmp</t>
+          <t>021-SHZL-00034-WCX-201708170934-D.bmp</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0007449612021446228</v>
+        <v>9.496567088262964e-08</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -714,43 +714,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
+          <t>021-SHZL-00386-SSHL-201812181503-D.bmp</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.345120505737214e-08</v>
+        <v>1.89621864876699e-08</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
+          <t>0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001802394050173461</v>
+        <v>2.141847943448738e-08</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
+          <t>029-XAJD-00137-LHR-201807191450-D.bmp</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.135150367621463e-08</v>
+        <v>4.132078235130621e-09</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -762,11 +762,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
+          <t>021-SHZL-00116-LFM-201801290845-D.bmp</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999996423721313</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -778,62 +778,62 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0531-SDZL-00088-LP-201912031540-D.bmp</t>
+          <t>029-XAJD-00054-GWL-201805300818-D.bmp</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004421045072376728</v>
+        <v>0.9883254766464233</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>021-SHZL-00122-WBF-201801311026-D.bmp</t>
+          <t>0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9222916960716248</v>
+        <v>5.569684091710769e-08</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>022-TJZL-00083-LWY-201811141417-D.bmp</t>
+          <t>0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998717308044434</v>
+        <v>4.24297219581149e-09</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
+          <t>029-CDFE-00017-CZHY-201901101113-D.bmp</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.863105353550054e-06</v>
+        <v>0.9997443556785583</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -842,14 +842,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>021-SHZL-00420-WZY-201903281525-D.bmp</t>
+          <t>021-SHZL-00072-YH-201710270945-D.bmp</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>1.539955178486707e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -858,11 +858,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>028-CDEF-00135-XQ-201909161432-D.bmp</t>
+          <t>029-XAJD-00259-WBJ-201905311529-D.bmp</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1.248803982889513e-05</v>
+        <v>0.153099462389946</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -874,126 +874,126 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>021-SHZL-00363-XHM-201811051324-D.bmp</t>
+          <t>0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.116107000598276e-06</v>
+        <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
+          <t>0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2930556535720825</v>
+        <v>1.373023337691848e-06</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
+          <t>029-XAJD-00070-LY-201806130921-D.bmp</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.747353443690372e-07</v>
+        <v>5.026780325323443e-09</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>028-CDFE-00158-ZHY-201911051152-D.bmp</t>
+          <t>0531-SDZL-00058-FQX-201905271554-D.bmp</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.550103641231544e-07</v>
+        <v>0.0001455860474379733</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>029-XAJD-00035-YWF-201805161140-D.bmp</t>
+          <t>028-CDFE-00207-WT-202005121004-D.bmp</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.4106048348076e-08</v>
+        <v>4.460978697551354e-09</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0531-SDZL-00121-SQL-202011181537-D.bmp</t>
+          <t>028-CDEF-00135-XQ-201909161432-D.bmp</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>2.02447534292105e-08</v>
+        <v>1.248803982889513e-05</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>028-CDEF-00191-YM-202003050943-D.bmp</t>
+          <t>021-SHZL-00357-CHHY-201810311435-D.bmp</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.107452807351365e-07</v>
+        <v>2.399419827270322e-07</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
+          <t>0571-ZHJSH-00030-SHFF-201807120950-D.bmp</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.9207800030708313</v>
+        <v>2.813407506963017e-09</v>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -1002,11 +1002,11 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
+          <t>028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.152480634431413e-07</v>
+        <v>6.621610282309121e-08</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -1018,30 +1018,30 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>021-SHZL-00396-CHGM-201812291147-D.bmp</t>
+          <t>023-CHQSY-00022-HCHW-201808221015-D.bmp</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.9999998807907104</v>
+        <v>0.0007449612021446228</v>
       </c>
       <c r="C37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>022-TJZL-00034-CHWH-201803261531-D.bmp</t>
+          <t>022-TJZL-00108-ZLM-201811231514-D.bmp</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.9999998807907104</v>
+        <v>4.072574938618345e-06</v>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -1050,11 +1050,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
+          <t>029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.84277013204337e-07</v>
+        <v>1.050612574715615e-08</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -1066,75 +1066,75 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
+          <t>021-SHZL-00247-LY-201807190959-D.bmp</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.333941776872962e-06</v>
+        <v>1.552148660266539e-06</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>023-CHQSY-00014-WJ-201807060916-D.bmp</t>
+          <t>022-TJZL-00023-QXW-201712181528-D.bmp</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.142595351666387e-06</v>
+        <v>1.667703664054443e-08</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
+          <t>0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.573867837924354e-09</v>
+        <v>9.48154550428626e-08</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>021-SHZL-00310-XHM-201808290906-D.bmp</t>
+          <t>022-TJZL-00065-GYE-201810051531-D.bmp</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.721653219988184e-08</v>
+        <v>2.833101575561159e-08</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
+          <t>021-SHZL-00189-SHYH-201806121134-D.bmp</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.187280642829137e-06</v>
+        <v>1.752291723278177e-06</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -1146,46 +1146,46 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00417-QHD-201907171119-D.bmp</t>
+          <t>022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.602315518629439e-08</v>
+        <v>0.6888759732246399</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00127-CHHY-201808271510-D.bmp</t>
+          <t>0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.09294967387541e-06</v>
+        <v>5.615977904938063e-09</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>021-SHZL-00102-SYP-201712181320-D.bmp</t>
+          <t>029-XAJD-00184-ZHMJ-201809191204-D.bmp</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7.651687155885156e-06</v>
+        <v>0.9207800030708313</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1194,27 +1194,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>021-SHZL-00070-CHJF-201710231512-D.bmp</t>
+          <t>0571-ZHJSH-00191-RDM-201810291053-D.bmp</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>1.863105353550054e-06</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>029-XAJD-00114-GJF-201807091012-D.bmp</t>
+          <t>021-SHZL-00006-WL-201707140849-D.bmp</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>3.582104284305387e-07</v>
+        <v>9.965305913794964e-09</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -1226,14 +1226,14 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
+          <t>029-XAJD-00172-YHY-201808291133-D.bmp</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1</v>
+        <v>4.429969351349428e-07</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
         <v>0</v>
@@ -1242,11 +1242,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>021-SHZL-00189-SHYH-201806121134-D.bmp</t>
+          <t>021-SHZL-00046-YML-201709041621-D.bmp</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.3991224765777588</v>
+        <v>1.125477751884318e-06</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -1258,11 +1258,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00436-WGF-201907230926-D.bmp</t>
+          <t>0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.141847943448738e-08</v>
+        <v>1.394256514686276e-07</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -1274,14 +1274,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>028-CDFE-00207-WT-202005121004-D.bmp</t>
+          <t>0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>4.460978697551354e-09</v>
+        <v>0.9997091889381409</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1290,11 +1290,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
+          <t>029-XAJD-00215-WYD-201811280950-D.bmp</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.999611498604281e-08</v>
+        <v>4.095498606915271e-09</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -1306,46 +1306,46 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
+          <t>028-CDFE-00100-CHJ-201906251138-D.bmp</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>3.261682124389154e-08</v>
+        <v>1.510022151762769e-08</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00312-BH-201906030956-D.bmp</t>
+          <t>021-SHZL-00369-ZHL-201811151050-D.bmp</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>9.097781730815768e-05</v>
+        <v>0.9990977048873901</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
+          <t>021-SHZL-00407-FYCH-201902281444-D.bmp</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.738405188689285e-07</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -1354,43 +1354,43 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>021-SHZL-00470-LWF-201908301420-D.bmp</t>
+          <t>028-CDFE-00194-QQ-202003240831-D.bmp</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.599049109150656e-05</v>
+        <v>5.943587893852964e-06</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
+          <t>021-SHZL-00313-CHXX-201808301117-D.bmp</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5.014495840782729e-08</v>
+        <v>4.818943910578355e-09</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>029-XAJD-00211-HL-201811231116-D.bmp</t>
+          <t>0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>6.379036410208982e-09</v>
+        <v>1.357192672912788e-06</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -1402,46 +1402,46 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>021-SHZL-00429-XSL-201905221035-D.bmp</t>
+          <t>028-CDFE-00090-ZHT-201906180828-D.bmp</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.9999980926513672</v>
+        <v>6.421506437703783e-09</v>
       </c>
       <c r="C61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00236-XMY-201902250956-D.bmp</t>
+          <t>0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3868981003761292</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>021-SHZL-00084-CHYM-201711080842-D.bmp</t>
+          <t>028-CDFE-00099-LXQ-201906251127-D-L.bmp</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.9999995231628418</v>
+        <v>1.476866806626731e-08</v>
       </c>
       <c r="C63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
         <v>0</v>
@@ -1450,14 +1450,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>029-XAJD-00197-MYZ-201811051529-D.bmp</t>
+          <t>0571-ZHJSH-00255-WXP-201903181202-D.bmp</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.9995961785316467</v>
+        <v>3.261682124389154e-08</v>
       </c>
       <c r="C64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
         <v>1</v>
@@ -1466,11 +1466,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>029-XAJD-00069-JYQ-201806130854-D.bmp</t>
+          <t>028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1.2654635384024e-07</v>
+        <v>9.58797045313986e-06</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -1482,43 +1482,43 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
+          <t>029-CDFE-00047-LCHH-201902270954-D.bmp</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>5.97504481447686e-07</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>021-SHZL-00433-GHF-201905241401-D.bmp</t>
+          <t>010-BJBA-00007-GQY-201709040946-D.bmp</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1954947113990784</v>
+        <v>0.006911823060363531</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>028-CDFE-00194-QQ-202003240831-D.bmp</t>
+          <t>0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>5.943587893852964e-06</v>
+        <v>1.600513655830582e-06</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1530,14 +1530,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>022-TJZL-00023-QXW-201712181528-D.bmp</t>
+          <t>021-SHZL-00443-TQJ-201906281100-D.bmp</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.667703664054443e-08</v>
+        <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1546,27 +1546,27 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00023-CBJ-201807101713-D.bmp</t>
+          <t>0571-ZHJSH-00163-HSHZH-201809120952-D.bmp</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9.527751032578635e-09</v>
+        <v>3.297399757684616e-07</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
+          <t>029-XAJD-00200-WXH-201811091536-D.bmp</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>4.780446829499851e-07</v>
+        <v>0.003364397212862968</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -1578,91 +1578,91 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
+          <t>028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.9454545378684998</v>
+        <v>4.316504842449831e-08</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
+          <t>028-CDFE-00144-YY-201910180925-D.bmp</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.000891653704456985</v>
+        <v>7.661126346647507e-07</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
+          <t>021-SHZL-00417-CHY-201903271622-D.bmp</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1.053112441695703e-08</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>029-XAJD-00143-DYL-201807231752-D.bmp</t>
+          <t>021-SHZL-00104-MYF-201712190850-D.bmp</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>6.172534483539494e-09</v>
+        <v>0.999996542930603</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>021-SHZL-00242-ZHL-201807171404-D.bmp</t>
+          <t>029-XAJD-00075-BYZH-201806140935-D.bmp</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>3.705828248712351e-07</v>
+        <v>4.55452136520762e-05</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00447-LHZH-201908051157-D.bmp</t>
+          <t>0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>2.688886890922504e-09</v>
+        <v>1.31926560698048e-06</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1674,27 +1674,27 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
+          <t>029-XAJD-00069-JYQ-201806130854-D.bmp</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.9999998807907104</v>
+        <v>1.2654635384024e-07</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>029-XAJD-00305-JFH-201910301645-D.bmp</t>
+          <t>029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>8.909683657520873e-09</v>
+        <v>3.626570155290665e-09</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -1706,14 +1706,14 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>029-CDFE-00046-QJW-201902261627-D.bmp</t>
+          <t>0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>3.734669178356853e-07</v>
+        <v>0.9999997615814209</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" t="n">
         <v>0</v>
@@ -1722,27 +1722,27 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>021-SHZL-00426-SHML-201905200946-D.bmp</t>
+          <t>0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9999983310699463</v>
+        <v>1.63223212439334e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>021-SHZL-00093-HL-201712111219-D.bmp</t>
+          <t>021-SHZL-00430-LJL-201905221045-D.bmp</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>9.877303455141373e-07</v>
+        <v>0.01070223096758127</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -1754,11 +1754,11 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>029-XAJD-00075-BYZH-201806140935-D.bmp</t>
+          <t>021-SHZL-00091-LYQ-201711241117-D.bmp</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>4.55452136520762e-05</v>
+        <v>1.458367592022114e-06</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
@@ -1770,30 +1770,30 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>021-SHZL-00417-CHY-201903271622-D.bmp</t>
+          <t>028-CDFE-00216-YFM-202007161432-D.bmp</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>1.48745286310259e-07</v>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
+          <t>0571-ZHJSH-00279-CHXH-201905031035-D.bmp</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.9999998807907104</v>
+        <v>1.053112441695703e-08</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -1802,27 +1802,27 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
+          <t>028-CDFE-00113-GYQ-201907301313-D.bmp</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1</v>
+        <v>5.593272067727639e-09</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>021-SHZL-00428-LSM-201905211048-D.bmp</t>
+          <t>0571-ZHJSH-00452-WSQ-201908130826-D.bmp</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1.091333245994974e-08</v>
+        <v>0.2930556535720825</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
@@ -1834,11 +1834,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
+          <t>021-SHZL-00008-CHZF-201707140943-D.bmp</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.015115117297682e-06</v>
+        <v>0.05498244985938072</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
@@ -1850,30 +1850,30 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>028-CDEF-00114-HQQ-201908020950-D.bmp</t>
+          <t>021-SHZL-00470-LWF-201908301420-D.bmp</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1.879348246802692e-06</v>
+        <v>5.599049109150656e-05</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>021-SHZL-00320-XCHX-201809031029-D.bmp</t>
+          <t>021-SHZL-00140-MCP-201803230955-D.bmp</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.928253173828125</v>
+        <v>1.004393425318995e-06</v>
       </c>
       <c r="C90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
         <v>1</v>
@@ -1882,11 +1882,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
+          <t>021-SHZL-00314-YYH-201808301126-D.bmp</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.9996381998062134</v>
+        <v>0.9998937845230103</v>
       </c>
       <c r="C91" t="n">
         <v>1</v>
@@ -1898,14 +1898,14 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>023-CHQSY-00005-TDH-201804081845-D.bmp</t>
+          <t>0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.9999949932098389</v>
+        <v>7.858765194157513e-09</v>
       </c>
       <c r="C92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
         <v>0</v>
@@ -1914,30 +1914,30 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>021-SHZL-00430-LJL-201905221045-D.bmp</t>
+          <t>0531-SDZL-00113-YR-202008251559-D.bmp</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01070223096758127</v>
+        <v>1</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>029-XAJD-00061-CHY-201806070846-D.bmp</t>
+          <t>0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>4.433087781308132e-07</v>
+        <v>0.9991528987884521</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -1946,11 +1946,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
+          <t>0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>4.036442078358959e-07</v>
+        <v>3.36790968447076e-08</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -1962,30 +1962,30 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
+          <t>0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1</v>
+        <v>6.505024963132655e-09</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
+          <t>021-SHZL-00084-CHYM-201711080842-D.bmp</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>5.477103925954907e-08</v>
+        <v>0.9999996423721313</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
         <v>0</v>
@@ -1994,14 +1994,14 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00188-XJQ-201810251223-D.bmp</t>
+          <t>0571-ZHJSH-00330-YGE-201906110958-D.bmp</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.9999997615814209</v>
+        <v>1.406785031576874e-06</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
         <v>0</v>
@@ -2010,11 +2010,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
+          <t>029-XAJD-00160-ZHDL-201808071648-D.bmp</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3.897291662724456e-07</v>
+        <v>1.999611498604281e-08</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -2026,17 +2026,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>021-SHZL-00008-CHZF-201707140943-D.bmp</t>
+          <t>021-SHZL-00241-CXF-201807170913-D.bmp</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.05498244985938072</v>
+        <v>0.9998562335968018</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -2058,14 +2058,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
+          <t>021-SHZL-00236-ZHLY-201807160911-D.bmp</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.9999998807907104</v>
+        <v>0.1105720773339272</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
         <v>1</v>
@@ -2074,14 +2074,14 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>029-CDFE-00065-YJ-201903251436-D-R.bmp</t>
+          <t>0571-ZHJSH-00089-LSHZH-201808061420-D.bmp</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.050612574715615e-08</v>
+        <v>1</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2090,11 +2090,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>029-XAJD-00171-YL-201808291030-D.bmp</t>
+          <t>0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>3.014777405496716e-07</v>
+        <v>3.176082286060478e-09</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
@@ -2106,11 +2106,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>022-TJZL-00037-ZHGL-201805031504-D.bmp</t>
+          <t>021-SHZL-00076-HJH-201711030913-D.bmp</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.6888759732246399</v>
+        <v>1</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
@@ -2122,27 +2122,27 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00202-CHJF-201811211120-D.bmp</t>
+          <t>0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1</v>
+        <v>5.418994142303291e-09</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>029-XAJD-00200-WXH-201811091536-D.bmp</t>
+          <t>028-CDEF-00140-LF-201909180910-D.bmp</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.003364397212862968</v>
+        <v>2.118072330858922e-07</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -2154,14 +2154,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>029-CDFE-00017-CZHY-201901101113-D.bmp</t>
+          <t>028-CDFE-00095-ML-201906191042-D.bmp</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.9997443556785583</v>
+        <v>7.282540650521696e-07</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2170,14 +2170,14 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>028-CDFE-00082-SHYR-201905091400-D.bmp</t>
+          <t>028-CDFE-00217-RLR-202007281329-D.bmp</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1.926164472365599e-08</v>
+        <v>0.9999979734420776</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -2186,11 +2186,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>029-CDFE-00050-HNY-201903071618-D.bmp</t>
+          <t>029-XAJD-00143-DYL-201807231752-D.bmp</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.678233729762724e-08</v>
+        <v>6.172534483539494e-09</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -2202,11 +2202,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
+          <t>029-XAJD-00114-GJF-201807091012-D.bmp</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3.401640080724633e-09</v>
+        <v>3.582104284305387e-07</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -2218,62 +2218,62 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>028-CDFE-00100-CHJ-201906251138-D.bmp</t>
+          <t>021-SHZL-00320-XCHX-201809031029-D.bmp</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1.510022151762769e-08</v>
+        <v>0.928253173828125</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>010-BJBA-00007-GQY-201709040946-D.bmp</t>
+          <t>0571-ZHJSH-00417-QHD-201907171119-D.bmp</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.006911823060363531</v>
+        <v>2.602315518629439e-08</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00362-SHHX-201906241007-D.bmp</t>
+          <t>021-SHZL-00195-QCG-201806151000-D.bmp</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1.373023337691848e-06</v>
+        <v>2.060331098618917e-06</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>021-SHZL-00003-HYM-201707131339-D.bmp</t>
+          <t>028-CDEF-00114-HQQ-201908020950-D.bmp</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.9971087574958801</v>
+        <v>1.879348246802692e-06</v>
       </c>
       <c r="C115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -2282,78 +2282,78 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
+          <t>0531-SDZL-00110-WH-202007302606-D.bmp</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>1.019308815131126e-08</v>
+        <v>0.238791823387146</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>028-CDFE-00113-GYQ-201907301313-D.bmp</t>
+          <t>022-TJZL-00047-MMY-201806261543-D.bmp</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5.593272067727639e-09</v>
+        <v>1</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>028-CDFE-00144-YY-201910180925-D.bmp</t>
+          <t>021-SHZL-00433-GHF-201905241401-D.bmp</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>7.661126346647507e-07</v>
+        <v>0.1954947113990784</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00120-WJJ-201808241238-D-L.bmp</t>
+          <t>021-SHZL-00074-XXX-201711011518-D.bmp</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.9991528987884521</v>
+        <v>9.656923083412039e-08</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>022-TJZL-00087-WJ-201811161446-D.bmp</t>
+          <t>0571-ZHJSH-00186-WTG-201810181143-D-L.bmp</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.6067957878112793</v>
+        <v>3.333941776872962e-06</v>
       </c>
       <c r="C120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2362,14 +2362,14 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
+          <t>028-CDFE-00206-CHQF-202005111335-D.bmp</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2.599084725218859e-09</v>
+        <v>0.9999974966049194</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2378,43 +2378,43 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>021-SHZL-00423-WHZH-201905051411-D.bmp</t>
+          <t>0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.377619594335556</v>
+        <v>2.318400618150918e-07</v>
       </c>
       <c r="C122" t="n">
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>021-SHZL-00140-MCP-201803230955-D.bmp</t>
+          <t>0571-ZHJSH-00058-ZHFD-201807231035-D-L.bmp</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1.004393425318995e-06</v>
+        <v>6.151029765533167e-07</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>029-XAJD-00090-DHY-201806200826-D.bmp</t>
+          <t>0571-ZHJSH-00413-JJF-201907161048-D.bmp</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2.41776767495594e-08</v>
+        <v>2.254358122399935e-07</v>
       </c>
       <c r="C124" t="n">
         <v>0</v>
@@ -2426,11 +2426,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
+          <t>029-CDFE-00050-HNY-201903071618-D.bmp</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>9.90901405373279e-09</v>
+        <v>1.678233729762724e-08</v>
       </c>
       <c r="C125" t="n">
         <v>0</v>
@@ -2442,43 +2442,43 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>021-SHZL-00125-TCHY-201802011138-D.bmp</t>
+          <t>029-XAJD-00243-LR-201905051110-D.bmp</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.9999998807907104</v>
+        <v>9.614034297555918e-07</v>
       </c>
       <c r="C126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>021-SHZL-00407-FYCH-201902281444-D.bmp</t>
+          <t>021-SHZL-00260-ZHGP-201807311431-D.bmp</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0.9454545378684998</v>
       </c>
       <c r="C127" t="n">
         <v>1</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00392-XLY-201907080929-D.bmp</t>
+          <t>0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>6.505024963132655e-09</v>
+        <v>2.866071326934616e-07</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -2490,30 +2490,30 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>021-SHZL-00357-CHHY-201810311435-D.bmp</t>
+          <t>023-CHQSY-00005-TDH-201804081845-D.bmp</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2.399419827270322e-07</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>021-SHZL-00116-LFM-201801290845-D.bmp</t>
+          <t>0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0.9999998807907104</v>
+        <v>1.285119566318826e-07</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -2522,11 +2522,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>029-CDFE-00077-YHR-201904281428-D.bmp</t>
+          <t>0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2.546310895468196e-07</v>
+        <v>1.178785805677762e-05</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -2538,27 +2538,27 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00180-TJM-201809271008-D.bmp</t>
+          <t>021-SHZL-00458-XXL-201907311054-D.bmp</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1.394256514686276e-07</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
+          <t>0571-ZHJSH-00435-YFY-201907230858-D.bmp</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>2.379339392177826e-08</v>
+        <v>1.738405188689285e-07</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2570,27 +2570,27 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>021-SHZL-00231-SLZH-201807120937-D.bmp</t>
+          <t>0571-ZHJSH-00234-JYQ-201902220953-D-L.bmp</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>0.009122309274971485</v>
+        <v>6.33131662652886e-08</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>029-XAJD-00165-GCHX-201808151555-D.bmp</t>
+          <t>028-CDFE-00082-SHYR-201905091400-D.bmp</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>0.3841455578804016</v>
+        <v>1.926164472365599e-08</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -2602,11 +2602,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>029-XAJD-00186-ZHLJ-201809260835-D.bmp</t>
+          <t>0571-ZHJSH-00316-ZHLCH-201906040935-D.bmp</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>3.626570155290665e-09</v>
+        <v>5.477103925954907e-08</v>
       </c>
       <c r="C136" t="n">
         <v>0</v>
@@ -2618,14 +2618,14 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>0531-SDZL-00009-LDD-201809110837-D.bmp</t>
+          <t>0571-ZHJSH-00340-LLP-201906140920-D.bmp</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>5.362678745512994e-09</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D137" t="n">
         <v>0</v>
@@ -2634,14 +2634,14 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>029-XAJD-00296-YMH-201910230829-D.bmp</t>
+          <t>022-TJZL-00034-CHWH-201803261531-D.bmp</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>7.471801843905723e-09</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -2650,11 +2650,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>028-CDFE-00197-LFR-202003241014-D.bmp</t>
+          <t>021-SHZL-00404-JLQ-201902280931-D.bmp</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.9999997615814209</v>
+        <v>0.9999991655349731</v>
       </c>
       <c r="C139" t="n">
         <v>1</v>
@@ -2666,11 +2666,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>021-SHZL-00085-ZHJ-201711081326-D.bmp</t>
+          <t>0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>4.334000095695956e-06</v>
+        <v>1.256104269486968e-07</v>
       </c>
       <c r="C140" t="n">
         <v>0</v>
@@ -2682,11 +2682,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>028-CDEF-00140-LF-201909180910-D.bmp</t>
+          <t>029-XAJD-00132-YLJ-201807181116-D.bmp</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>2.118072330858922e-07</v>
+        <v>9.87989778877818e-08</v>
       </c>
       <c r="C141" t="n">
         <v>0</v>
@@ -2698,11 +2698,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>029-XAJD-00215-WYD-201811280950-D.bmp</t>
+          <t>0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>4.095498606915271e-09</v>
+        <v>3.538936255154113e-08</v>
       </c>
       <c r="C142" t="n">
         <v>0</v>
@@ -2714,11 +2714,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>029-XAJD-00259-WBJ-201905311529-D.bmp</t>
+          <t>0571-ZHJSH-00384-ZHYM-201907041007-D.bmp</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0.153099462389946</v>
+        <v>9.90901405373279e-09</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -2730,43 +2730,43 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00341-ZHYF-201906141045-D.bmp</t>
+          <t>029-XAJD-00271-WJ-201907121048-D.bmp</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>6.423739051797384e-08</v>
+        <v>3.583809018437023e-07</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>029-XAJD-00072-HXN-201806131030-D.bmp</t>
+          <t>0571-ZHJSH-00023-CBJ-201807101713-D.bmp</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1.714869313218514e-08</v>
+        <v>9.527751032578635e-09</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>028-CDEF-00153-YY-201910291453-D.bmp</t>
+          <t>0571-ZHJSH-00072-ZHJF-201807301020-D.bmp</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>6.310080493676651e-07</v>
+        <v>4.780446829499851e-07</v>
       </c>
       <c r="C146" t="n">
         <v>0</v>
@@ -2778,14 +2778,14 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>029-XAJD-00137-LHR-201807191450-D.bmp</t>
+          <t>028-CDFE-00197-LFR-202003241014-D.bmp</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>4.132078235130621e-09</v>
+        <v>0.9999997615814209</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -2794,30 +2794,30 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>021-SHZL-00211-LCHY-201806261406-D.bmp</t>
+          <t>0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1.582626225626882e-07</v>
+        <v>2.145549615306663e-06</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>029-XAJD-00181-LAL-201809171051-D.bmp</t>
+          <t>0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0.03882267698645592</v>
+        <v>0.9991490840911865</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -2826,11 +2826,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
+          <t>0571-ZHJSH-00017-WHY-201807051517-D.bmp</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3.324735473597684e-07</v>
+        <v>4.387378851333779e-07</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -2842,11 +2842,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>028-CDFE-00205-XL-202005091040-D.bmp</t>
+          <t>029-XAJD-00119-SQ-201807101108-D.bmp</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.679070121303084e-06</v>
+        <v>7.047776584556686e-09</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2858,75 +2858,75 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>028-CDFE-00090-ZHT-201906180828-D.bmp</t>
+          <t>021-SHZL-00024-CHXW-201708100945-D.bmp</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>6.421506437703783e-09</v>
+        <v>4.001760316896252e-05</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
+          <t>021-SHZL-00406-ZHLY-201902281036-D.bmp</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>3.44392958595563e-07</v>
+        <v>0.8458287119865417</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>021-SHZL-00146-HJF-201804031110-D.bmp</t>
+          <t>029-XAJD-00211-HL-201811231116-D.bmp</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1</v>
+        <v>6.379036410208982e-09</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00153-XSHH-201809061100-D-L.bmp</t>
+          <t>021-SHZL-00231-SLZH-201807120937-D.bmp</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>3.176082286060478e-09</v>
+        <v>0.009122309274971485</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>022-TJZL-00108-ZLM-201811231514-D.bmp</t>
+          <t>0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>4.072574938618345e-06</v>
+        <v>1.635303981117886e-08</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -2938,11 +2938,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00343-YML-201906170916-D.bmp</t>
+          <t>0531-SDZL-00017-WCH-201811071350-D.bmp</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1.285119566318826e-07</v>
+        <v>2.080109334201552e-05</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -2954,27 +2954,27 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>028-CDEF-00175-YYJ-201912241613-D.bmp</t>
+          <t>021-SHZL-00278-WCHQ-201808081622-D.bmp</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>3.579135920972476e-08</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00035-HJY-201807121224-D-R.bmp</t>
+          <t>029-XAJD-00061-CHY-201806070846-D.bmp</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>6.599110520255635e-07</v>
+        <v>4.433087781308132e-07</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -2986,11 +2986,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00122-WNY-201808270959-D.bmp</t>
+          <t>029-CDFE-00079-ZHJ-2019051403-D.bmp</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1.635303981117886e-08</v>
+        <v>2.351353316498717e-07</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -3002,43 +3002,43 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>021-SHZL-00184-CMZH-201806061107-D.bmp</t>
+          <t>0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3.226688249924337e-07</v>
+        <v>8.221210805459123e-07</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00111-LLJ-201808231047-D.bmp</t>
+          <t>0531-SDZL-00008-SHYCH-201809100845-D.bmp</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>3.311972420760867e-07</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>021-SHZL-00241-CXF-201807170913-D.bmp</t>
+          <t>021-SHZL-00040-WYP-201708251025-D.bmp</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.9998562335968018</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>1</v>
@@ -3050,14 +3050,14 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
+          <t>029-XAJD-00260-ZHYJ-201905311544-D.bmp</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1</v>
+        <v>4.036442078358959e-07</v>
       </c>
       <c r="C164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
         <v>0</v>
@@ -3066,14 +3066,14 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>028-CDFE-00217-RLR-202007281329-D.bmp</t>
+          <t>0571-ZHJSH-00129-ZHCHP-201808281448-D.bmp</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.9999979734420776</v>
+        <v>2.379339392177826e-08</v>
       </c>
       <c r="C165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3082,91 +3082,91 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00207-ZHJX-201812071532-D.bmp</t>
+          <t>021-SHZL-00363-XHM-201811051324-D.bmp</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1.31926560698048e-06</v>
+        <v>1.116107000598276e-06</v>
       </c>
       <c r="C166" t="n">
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
+          <t>028-CDFE-00205-XL-202005091040-D.bmp</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>3.260885961253734e-08</v>
+        <v>2.679070121303084e-06</v>
       </c>
       <c r="C167" t="n">
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>021-SHZL-00195-QCG-201806151000-D.bmp</t>
+          <t>021-SHZL-00164-HY-201804251158-D.bmp</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>2.633398253237829e-06</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>021-SHZL-00255-WL-201807261001-D.bmp</t>
+          <t>0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0.9999860525131226</v>
+        <v>2.326799197760465e-08</v>
       </c>
       <c r="C169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>021-SHZL-00034-WCX-201708170934-D.bmp</t>
+          <t>021-SHZL-00283-HYQ-201808130841-D.bmp</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>8.585327293531009e-08</v>
+        <v>2.717823008424602e-06</v>
       </c>
       <c r="C170" t="n">
         <v>0</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>028-CDEF-00148-ZRY-201910221540-D.bmp</t>
+          <t>0571-ZHJSH-00454-JY-201908130942-D.bmp</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>1.469666557341043e-07</v>
+        <v>8.573867837924354e-09</v>
       </c>
       <c r="C171" t="n">
         <v>0</v>
@@ -3178,14 +3178,14 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>021-SHZL-00164-HY-201804251158-D.bmp</t>
+          <t>028-CDEF-00148-ZRY-201910221540-D.bmp</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>1</v>
+        <v>1.469666557341043e-07</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -3194,7 +3194,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00089-LSHZH-201808061420-D.bmp</t>
+          <t>0571-ZHJSH-00012-PHQ-201807031722-D.bmp</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -3210,11 +3210,11 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00002-CHHY-201806261723-D.bmp</t>
+          <t>021-SHZL-00310-XHM-201808290906-D.bmp</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1.63223212439334e-05</v>
+        <v>1.721653219988184e-08</v>
       </c>
       <c r="C174" t="n">
         <v>0</v>
@@ -3226,59 +3226,59 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
+          <t>022-TJZL-00083-LWY-201811141417-D.bmp</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>0.1461223512887955</v>
+        <v>0.9998717308044434</v>
       </c>
       <c r="C175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>029-XAJD-00172-YHY-201808291133-D.bmp</t>
+          <t>021-SHZL-00242-ZHL-201807171404-D.bmp</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>4.429969351349428e-07</v>
+        <v>3.705828248712351e-07</v>
       </c>
       <c r="C176" t="n">
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>029-XAJD-00242-GMR-201903270846-D.bmp</t>
+          <t>021-SHZL-00125-TCHY-201802011138-D.bmp</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>6.640237248944914e-09</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00056-ZHXP-201807230949-D.bmp</t>
+          <t>029-XAJD-00165-GCHX-201808151555-D.bmp</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>1.327022971508995e-07</v>
+        <v>0.3841455578804016</v>
       </c>
       <c r="C178" t="n">
         <v>0</v>
@@ -3290,11 +3290,11 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>028-CDFE-00216-YFM-202007161432-D.bmp</t>
+          <t>028-CDFE-00165-YHM-201911121111-D.bmp</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1.48745286310259e-07</v>
+        <v>0.01571781560778618</v>
       </c>
       <c r="C179" t="n">
         <v>0</v>
@@ -3306,43 +3306,43 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
+          <t>0571-ZHJSH-00182-XXM-201809281113-D-R.bmp</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>1</v>
+        <v>1.84277013204337e-07</v>
       </c>
       <c r="C180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00283-FXF-201905071007-D.bmp</t>
+          <t>0531-SDZL-00087-LP-201911281444-D.bmp</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>2.318400618150918e-07</v>
+        <v>3.664579537598911e-07</v>
       </c>
       <c r="C181" t="n">
         <v>0</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>0531-SDZL-00017-WCH-201811071350-D.bmp</t>
+          <t>028-CDEF-00153-YY-201910291453-D.bmp</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>2.080109334201552e-05</v>
+        <v>6.310080493676651e-07</v>
       </c>
       <c r="C182" t="n">
         <v>0</v>
@@ -3354,78 +3354,78 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>028-CDEF-00187-FQ-202001211433-D.bmp</t>
+          <t>021-SHZL-00166-ZHYZ-201804271021-D.bmp</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>3.787855717973798e-08</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
+          <t>029-XAJD-00242-GMR-201903270846-D.bmp</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>0.9982409477233887</v>
+        <v>6.640237248944914e-09</v>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>028-CDFE-00095-ML-201906191042-D.bmp</t>
+          <t>0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>7.282540650521696e-07</v>
+        <v>7.59324514376658e-09</v>
       </c>
       <c r="C185" t="n">
         <v>0</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>029-CDFE-00068-GJR-201904021532-D.bmp</t>
+          <t>021-SHZL-00150-FPP-201804101358-D.bmp</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>9.644457676927232e-09</v>
+        <v>1.871468526815079e-07</v>
       </c>
       <c r="C186" t="n">
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>021-SHZL-00410-LKL-201903010925-D.bmp</t>
+          <t>0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>0.8669630885124207</v>
+        <v>3.523957047946169e-06</v>
       </c>
       <c r="C187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" t="n">
         <v>0</v>
@@ -3434,27 +3434,27 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00082-WY-201808070958-D-R.bmp</t>
+          <t>029-XAJD-00035-YWF-201805161140-D.bmp</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>1.357192672912788e-06</v>
+        <v>8.4106048348076e-08</v>
       </c>
       <c r="C188" t="n">
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>0531-SDZL-00058-FQX-201905271554-D.bmp</t>
+          <t>021-SHZL-00423-WHZH-201905051411-D.bmp</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>0.0001455860474379733</v>
+        <v>0.377619594335556</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -3466,11 +3466,11 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>028-CDFE-00165-YHM-201911121111-D.bmp</t>
+          <t>0571-ZHJSH-00258-ZHLT-201903190936-D.bmp</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.01571781560778618</v>
+        <v>0.1461223512887955</v>
       </c>
       <c r="C190" t="n">
         <v>0</v>
@@ -3482,11 +3482,11 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>029-XAJD-00258-CHHF-201905311503-D.bmp</t>
+          <t>0571-ZHJSH-00312-BH-201906030956-D.bmp</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1.744856035656994e-06</v>
+        <v>9.097781730815768e-05</v>
       </c>
       <c r="C191" t="n">
         <v>0</v>
@@ -3498,43 +3498,43 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>021-SHZL-00024-CHXW-201708100945-D.bmp</t>
+          <t>0571-ZHJSH-00421-HJQ-201907190911-D.bmp</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>4.001760316896252e-05</v>
+        <v>3.44392958595563e-07</v>
       </c>
       <c r="C192" t="n">
         <v>0</v>
       </c>
       <c r="D192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>021-SHZL-00044-CHHJ-201708301554-D.bmp</t>
+          <t>0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>0.9998058676719666</v>
+        <v>2.016759481193731e-06</v>
       </c>
       <c r="C193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>021-SHZL-00351-WXJ-201810221547-D.bmp</t>
+          <t>028-CDEF-00191-YM-202003050943-D.bmp</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>1.522429738542996e-05</v>
+        <v>5.107452807351365e-07</v>
       </c>
       <c r="C194" t="n">
         <v>0</v>
@@ -3546,27 +3546,27 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>0311-SJZFY-00013-JXJ-201904221150-D.bmp</t>
+          <t>021-SHZL-00070-CHJF-201710231512-D.bmp</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>3.251435828133253e-06</v>
+        <v>1</v>
       </c>
       <c r="C195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>021-SHZL-00277-HXY-201808081037-D.bmp</t>
+          <t>021-SHZL-00122-WBF-201801311026-D.bmp</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>1</v>
+        <v>0.9222916960716248</v>
       </c>
       <c r="C196" t="n">
         <v>1</v>
@@ -3578,43 +3578,43 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>0531-SDZL-00110-WH-202007302606-D.bmp</t>
+          <t>0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>0.238791823387146</v>
+        <v>0.0003929920494556427</v>
       </c>
       <c r="C197" t="n">
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>021-SHZL-00404-JLQ-201902280931-D.bmp</t>
+          <t>0531-SDZL-00078-ZHYL-201910081036-D.bmp</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>1</v>
+        <v>0.9982409477233887</v>
       </c>
       <c r="C198" t="n">
         <v>1</v>
       </c>
       <c r="D198" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00163-HSHZH-201809120952-D.bmp</t>
+          <t>028-CDEF-00187-FQ-202001211433-D.bmp</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3.297399757684616e-07</v>
+        <v>3.787855717973798e-08</v>
       </c>
       <c r="C199" t="n">
         <v>0</v>
@@ -3626,43 +3626,43 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>029-CDFE-00047-LCHH-201902270954-D.bmp</t>
+          <t>029-XAJD-00197-MYZ-201811051529-D.bmp</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>5.97504481447686e-07</v>
+        <v>0.9997199177742004</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>021-SHZL-00072-YH-201710270945-D.bmp</t>
+          <t>0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1.539955178486707e-06</v>
+        <v>1.87674886547029e-05</v>
       </c>
       <c r="C201" t="n">
         <v>0</v>
       </c>
       <c r="D201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00348-PXQ-201906180932-D.bmp</t>
+          <t>029-XAJD-00305-JFH-201910301645-D.bmp</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>3.523957047946169e-06</v>
+        <v>8.909683657520873e-09</v>
       </c>
       <c r="C202" t="n">
         <v>0</v>
@@ -3674,11 +3674,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00376-ZHJF-201907011102-D.bmp</t>
+          <t>029-CDFE-00068-GJR-201904021532-D.bmp</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>5.615977904938063e-09</v>
+        <v>9.644457676927232e-09</v>
       </c>
       <c r="C203" t="n">
         <v>0</v>
@@ -3690,27 +3690,27 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>021-SHZL-00314-YYH-201808301126-D.bmp</t>
+          <t>021-SHZL-00275-ZHMY-201808071321-D.bmp</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>0.9998937845230103</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C204" t="n">
         <v>1</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>029-XAJD-00132-YLJ-201807181116-D.bmp</t>
+          <t>021-SHZL-00102-SYP-201712181320-D.bmp</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>9.87989778877818e-08</v>
+        <v>4.602614183113474e-07</v>
       </c>
       <c r="C205" t="n">
         <v>0</v>
@@ -3722,11 +3722,11 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>028-CDFE-00186-ZHJ-202001171324-D.bmp</t>
+          <t>0571-ZHJSH-00260-HYY-201903251020-D.bmp</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>6.621610282309121e-08</v>
+        <v>2.135150367621463e-08</v>
       </c>
       <c r="C206" t="n">
         <v>0</v>
@@ -3738,46 +3738,46 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00116-LL-201808240900-D.bmp</t>
+          <t>021-SHZL-00277-HXY-201808081037-D.bmp</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>3.36790968447076e-08</v>
+        <v>1</v>
       </c>
       <c r="C207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>029-XAJD-00119-SQ-201807101108-D.bmp</t>
+          <t>021-SHZL-00211-LCHY-201806261406-D.bmp</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>7.047776584556686e-09</v>
+        <v>3.016077414486062e-07</v>
       </c>
       <c r="C208" t="n">
         <v>0</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>029-CDFE-00018-LQ-201901141344-D.bmp</t>
+          <t>0571-ZHJSH-00236-XMY-201902250956-D.bmp</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>0.8349489569664001</v>
+        <v>0.3868981003761292</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -3786,59 +3786,59 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00025-XHJ-201807111033-D.bmp</t>
+          <t>0571-ZHJSH-00324-ZHYF-201906100937-D.bmp</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>0.9997091889381409</v>
+        <v>2.85672161481898e-08</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>021-SHZL-00188-HJ-201806081517-D.bmp</t>
+          <t>022-TJZL-00087-WJ-201811161446-D.bmp</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0.6067957878112793</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>0531-SDZL-00087-LP-201911281444-D.bmp</t>
+          <t>029-CDFE-00022-LX-201901151400-D.bmp</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>3.664579537598911e-07</v>
+        <v>8.241607929448946e-08</v>
       </c>
       <c r="C212" t="n">
         <v>0</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>021-SHZL-00091-LYQ-201711241117-D.bmp</t>
+          <t>028-CDFE-00030-LJ-201902131015-D.bmp</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>3.028470246135839e-06</v>
+        <v>3.346042332097454e-09</v>
       </c>
       <c r="C213" t="n">
         <v>0</v>
@@ -3850,14 +3850,14 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
+          <t>0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>5.797804192297917e-07</v>
+        <v>0.9999926090240479</v>
       </c>
       <c r="C214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -3866,11 +3866,11 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00450-ZHKL-201908090801-D.bmp</t>
+          <t>023-CHQSY-00037-LDR-201903221109-D-R.bmp</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>1.221733964484883e-05</v>
+        <v>3.210020395272295e-06</v>
       </c>
       <c r="C215" t="n">
         <v>0</v>
@@ -3882,14 +3882,14 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>021-SHZL-00046-YML-201709041621-D.bmp</t>
+          <t>021-SHZL-00003-HYM-201707131339-D.bmp</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>1.536128252155322e-06</v>
+        <v>0.9971087574958801</v>
       </c>
       <c r="C216" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D216" t="n">
         <v>0</v>
@@ -3898,14 +3898,14 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00019-HPX-201807090946-D-R.bmp</t>
+          <t>021-SHZL-00410-LKL-201903010925-D.bmp</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>1.178785805677762e-05</v>
+        <v>0.8669630885124207</v>
       </c>
       <c r="C217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D217" t="n">
         <v>0</v>
@@ -3914,14 +3914,14 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>028-CDFE-00206-CHQF-202005111335-D.bmp</t>
+          <t>028-CDFE-00196-ZHDF-202003241008-D.bmp</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>0.9999974966049194</v>
+        <v>5.797804192297917e-07</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -3930,27 +3930,27 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
+          <t>0531-SDZL-00121-SQL-202011181537-D.bmp</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>2.02447534292105e-08</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>021-SHZL-00006-WL-201707140849-D.bmp</t>
+          <t>029-XAJD-00181-LAL-201809171051-D.bmp</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>9.965305913794964e-09</v>
+        <v>0.03882267698645592</v>
       </c>
       <c r="C220" t="n">
         <v>0</v>
@@ -3962,11 +3962,11 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
+          <t>0571-ZHJSH-00445-ZXH-201908021019-D.bmp</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>2.645356858010928e-07</v>
+        <v>1.019308815131126e-08</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
@@ -3978,27 +3978,27 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>021-SHZL-00076-HJH-201711030913-D.bmp</t>
+          <t>029-XAJD-00311-HXD-201911051539-D.bmp</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>1</v>
+        <v>8.821991315244304e-08</v>
       </c>
       <c r="C222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00049-GSHL-201807181104-D.bmp</t>
+          <t>0571-ZHJSH-00447-LHZH-201908051157-D.bmp</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>5.569684091710769e-08</v>
+        <v>2.688886890922504e-09</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
@@ -4010,43 +4010,43 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>021-SHZL-00386-SSHL-201812181503-D.bmp</t>
+          <t>028-CDFE-00093-ZHZHH-201906191018-D.bmp</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>1.89621864876699e-08</v>
+        <v>1</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00275-XXQ-201904290913-D.bmp</t>
+          <t>0531-SDZL-00009-LDD-201809110837-D.bmp</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>5.418994142303291e-09</v>
+        <v>5.362678745512994e-09</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00032-ZHHZH-201807121135-D.bmp</t>
+          <t>029-CDFE-00077-YHR-201904281428-D.bmp</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>1.600513655830582e-06</v>
+        <v>2.546310895468196e-07</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
@@ -4058,107 +4058,107 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>021-SHZL-00074-XXX-201711011518-D.bmp</t>
+          <t>0571-ZHJSH-00425-FJL-201907191005-D.bmp</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1.631928370215974e-07</v>
+        <v>1.015115117297682e-06</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
+          <t>021-SHZL-00108-ZHDR-201801051559-D.bmp</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>2.674734744800844e-08</v>
+        <v>1.16560459062498e-08</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>029-XAJD-00178-ZHMD-201809120940-D.bmp</t>
+          <t>029-XAJD-00258-CHHF-201905311503-D.bmp</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>2.588118697133268e-08</v>
+        <v>1.744856035656994e-06</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>028-CDFE-00086-LSHQ-201905141544-D.bmp</t>
+          <t>021-SHZL-00396-CHGM-201812291147-D.bmp</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>9.58797045313986e-06</v>
+        <v>0.9999998807907104</v>
       </c>
       <c r="C230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00415-HLH-201907171034-D.bmp</t>
+          <t>0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>9.48154550428626e-08</v>
+        <v>0.997980535030365</v>
       </c>
       <c r="C231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>022-TJZL-00047-MMY-201806261543-D.bmp</t>
+          <t>0571-ZHJSH-00144-HYL-201809061221-D-R.bmp</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>1</v>
+        <v>5.014495840782729e-08</v>
       </c>
       <c r="C232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>021-SHZL-00039-LTH-20170825055-D.bmp</t>
+          <t>021-SHZL-00188-HJ-201806081517-D.bmp</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>0.9151228070259094</v>
+        <v>1</v>
       </c>
       <c r="C233" t="n">
         <v>1</v>
@@ -4170,14 +4170,14 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>021-SHZL-00443-TQJ-201906281100-D.bmp</t>
+          <t>021-SHZL-00184-CMZH-201806061107-D.bmp</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>1</v>
+        <v>3.226688249924337e-07</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D234" t="n">
         <v>1</v>
@@ -4186,11 +4186,11 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00413-JJF-201907161048-D.bmp</t>
+          <t>0571-ZHJSH-00167-XLL-201809181003-D-R.bmp</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>2.254358122399935e-07</v>
+        <v>2.674734744800844e-08</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -4202,11 +4202,11 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>029-XAJD-00271-WJ-201907121048-D.bmp</t>
+          <t>029-XAJD-00100-ZHYH-201806261156-D.bmp</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>3.583809018437023e-07</v>
+        <v>7.152480634431413e-07</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -4218,43 +4218,43 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00010-XNQ-201807031418-D.bmp</t>
+          <t>0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>7.59324514376658e-09</v>
+        <v>0.0003617487964220345</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00062-LJX-201807241439-D.bmp</t>
+          <t>021-SHZL-00146-HJF-201804031110-D.bmp</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>0.03699765354394913</v>
+        <v>0.9999427795410156</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00073-SQX-201807301015-D.bmp</t>
+          <t>021-SHZL-00351-WXJ-201810221547-D.bmp</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>2.866071326934616e-07</v>
+        <v>1.522429738542996e-05</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -4266,11 +4266,11 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>021-SHZL-00283-HYQ-201808130841-D.bmp</t>
+          <t>0571-ZHJSH-00341-ZHYF-201906141045-D.bmp</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>2.717823008424602e-06</v>
+        <v>6.423739051797384e-08</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -4282,23 +4282,23 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00272-CHGL-201904251000-D.bmp</t>
+          <t>0531-SDZL-00072-HZHQ-2019081315447-D.bmp</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>7.497412468637776e-09</v>
+        <v>9.467040058552811e-07</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>021-SHZL-00437-CRH-201906200909-D.bmp</t>
+          <t>021-SHZL-00103-MYX-201712181506-D.bmp</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -4314,75 +4314,75 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00282-HDM-201905070959-D.bmp</t>
+          <t>021-SHZL-00083-ZHJH-201711081344-D.bmp</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>2.016759481193731e-06</v>
+        <v>3.260885961253734e-08</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00087-ZXL-201808060944-D.bmp</t>
+          <t>021-SHZL-00420-WZY-201903281525-D.bmp</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>1.45761384828802e-06</v>
+        <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>021-SHZL-00040-WYP-201708251025-D.bmp</t>
+          <t>029-XAJD-00090-DHY-201806200826-D.bmp</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>2.41776767495594e-08</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
+          <t>021-SHZL-00039-LTH-20170825055-D.bmp</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>6.448029221672869e-09</v>
+        <v>0.9704495668411255</v>
       </c>
       <c r="C246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>029-XAJD-00148-WX-201807261131-D.bmp</t>
+          <t>029-XAJD-00072-HXN-201806131030-D.bmp</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>6.294201284617884e-07</v>
+        <v>1.714869313218514e-08</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -4394,11 +4394,11 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>028-CDFE-00118-WJM-201908081530-D.bmp</t>
+          <t>028-CDFE-00158-ZHY-201911051152-D.bmp</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>1.026322138386604e-08</v>
+        <v>9.550103641231544e-07</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -4410,14 +4410,14 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>029-XAJD-00243-LR-201905051110-D.bmp</t>
+          <t>021-SHZL-00411-ZSHJ-201903010940-D.bmp</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>9.614034297555918e-07</v>
+        <v>0.9996381998062134</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -4426,14 +4426,14 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>0531-SDZL-00113-YR-202008251559-D.bmp</t>
+          <t>028-CDFE-00102-WSHQ-201906271410-D.bmp</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>1</v>
+        <v>6.448029221672869e-09</v>
       </c>
       <c r="C250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D250" t="n">
         <v>0</v>
@@ -4442,11 +4442,11 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>028-CDFE-00168-WLF-201911181441-D-L.bmp</t>
+          <t>029-XAJD-00296-YMH-201910230829-D.bmp</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>4.430073730077311e-08</v>
+        <v>7.471801843905723e-09</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -4458,11 +4458,11 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00266-ZHYX-201904230954-D.bmp</t>
+          <t>0571-ZHJSH-00409-DMF-201907160946-D.bmp</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>0.997980535030365</v>
+        <v>0.9996261596679688</v>
       </c>
       <c r="C252" t="n">
         <v>1</v>
@@ -4474,46 +4474,46 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>021-SHZL-00317-JWX-201808311036-D.bmp</t>
+          <t>0571-ZHJSH-00176-ZHXJ-201809261042-D.bmp</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>8.345120505737214e-08</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00201-MHJ-201811131031-D.bmp</t>
+          <t>021-SHZL-00426-SHML-201905200946-D.bmp</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>0.9999926090240479</v>
+        <v>0.9999983310699463</v>
       </c>
       <c r="C254" t="n">
         <v>1</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>029-XAJD-00070-LY-201806130921-D.bmp</t>
+          <t>0571-ZHJSH-00022-DMY-201807091031-D-R.bmp</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>5.026780325323443e-09</v>
+        <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D255" t="n">
         <v>0</v>
@@ -4522,11 +4522,11 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>0311-SJZFY-00002-DQZH-201806111131-D-L.bmp</t>
+          <t>0571-ZHJSH-00011-YJY-201807031713-D.bmp</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>1.994412102135357e-08</v>
+        <v>2.645356858010928e-07</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -4538,14 +4538,14 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>021-SHZL-00104-MYF-201712190850-D.bmp</t>
+          <t>0531-SDZL-00088-LP-201912031540-D.bmp</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0.9999998807907104</v>
+        <v>0.004421045072376728</v>
       </c>
       <c r="C257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D257" t="n">
         <v>1</v>
@@ -4554,11 +4554,11 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>029-XAJD-00310-DXM-201911011539-D.bmp</t>
+          <t>029-XAJD-00051-XXY-201805280952-D-R.bmp</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>3.572690232545028e-08</v>
+        <v>3.057505466586008e-07</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -4570,30 +4570,30 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>022-TJZL-00065-GYE-201810051531-D.bmp</t>
+          <t>0571-ZHJSH-00155-LSQ-201809061432-D.bmp</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>2.833101575561159e-08</v>
+        <v>2.187282916565891e-06</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
       </c>
       <c r="D259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
+          <t>023-CHQSY-00014-WJ-201807060916-D.bmp</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>1</v>
+        <v>2.542074639677594e-07</v>
       </c>
       <c r="C260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -4602,14 +4602,14 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>023-CHQSY-00037-LDR-201903221109-D-R.bmp</t>
+          <t>0531-SDZL-00023-CHCHH-201812101359-D.bmp</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>0.000633619783911854</v>
+        <v>1</v>
       </c>
       <c r="C261" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
@@ -4618,14 +4618,14 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>021-SHZL-00103-MYX-201712181506-D.bmp</t>
+          <t>021-SHZL-00428-LSM-201905211048-D.bmp</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>1</v>
+        <v>1.091333245994974e-08</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D262" t="n">
         <v>1</v>
@@ -4634,30 +4634,30 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00137-ZHXE-201808310940-D.bmp</t>
+          <t>021-SHZL-00412-WJH-201903111603-D.bmp</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1.87674886547029e-05</v>
+        <v>0.999559223651886</v>
       </c>
       <c r="C263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D263" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00051-ZHAF-201807190951-D-L.bmp</t>
+          <t>021-SHZL-00459-ZHXH-201907311404-D.bmp</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1.256105406355346e-07</v>
+        <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D264" t="n">
         <v>1</v>
@@ -4666,43 +4666,43 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>028-CDFE-00122-CHX-201908291306-D.bmp</t>
+          <t>021-SHZL-00317-JWX-201808311036-D.bmp</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>0.5834746360778809</v>
+        <v>1</v>
       </c>
       <c r="C265" t="n">
         <v>1</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>021-SHZL-00247-LY-201807190959-D.bmp</t>
+          <t>0571-ZHJSH-00371-MLQ-201906280940-D.bmp</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>2.115961706294911e-06</v>
+        <v>2.599084725218859e-09</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
       </c>
       <c r="D266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00433-DSHY-201907221100-D.bmp</t>
+          <t>0531-SDZL-00075-LY-201909101424-DZ.bmp</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>4.24297219581149e-09</v>
+        <v>0.000891653704456985</v>
       </c>
       <c r="C267" t="n">
         <v>0</v>
@@ -4714,27 +4714,27 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00321-WFM-201906061009-D.bmp</t>
+          <t>029-XAJD-00178-ZHMD-201809120940-D.bmp</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>0.0003617489710450172</v>
+        <v>2.588118697133268e-08</v>
       </c>
       <c r="C268" t="n">
         <v>0</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>0311-SJZFY-00009-LYL-201901151120-D-L.bmp</t>
+          <t>0571-ZHJSH-00233-DL-201902211652-D-L.bmp</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>0.0003929920494556427</v>
+        <v>3.401640080724633e-09</v>
       </c>
       <c r="C269" t="n">
         <v>0</v>
@@ -4746,14 +4746,14 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>021-SHZL-00150-FPP-201804101358-D.bmp</t>
+          <t>021-SHZL-00155-GCHQ-201804121632-D.bmp</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>1.87147193742021e-07</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D270" t="n">
         <v>1</v>
@@ -4762,14 +4762,14 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00196-SHJL-201811011109-D.bmp</t>
+          <t>029-CDFE-00018-LQ-201901141344-D.bmp</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>2.326799197760465e-08</v>
+        <v>0.8349489569664001</v>
       </c>
       <c r="C271" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D271" t="n">
         <v>0</v>
@@ -4778,27 +4778,27 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>021-SHZL-00313-CHXX-201808301117-D.bmp</t>
+          <t>021-SHZL-00121-XJF-201801310949-D.bmp</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>0.9997754693031311</v>
+        <v>2.996666580656893e-06</v>
       </c>
       <c r="C272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>028-CDFE-00030-LJ-201902131015-D.bmp</t>
+          <t>028-CDEF-00175-YYJ-201912241613-D.bmp</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>3.346042332097454e-09</v>
+        <v>3.579135920972476e-08</v>
       </c>
       <c r="C273" t="n">
         <v>0</v>
@@ -4810,43 +4810,43 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00301-ZHY-201905171046-D.bmp</t>
+          <t>021-SHZL-00093-HL-201712111219-D.bmp</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>3.538936255154113e-08</v>
+        <v>9.877285265247338e-07</v>
       </c>
       <c r="C274" t="n">
         <v>0</v>
       </c>
       <c r="D274" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>0571-ZHJSH-00314-YFF-201906031346-D.bmp</t>
+          <t>029-XAJD-00310-DXM-201911011539-D.bmp</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>3.572690232545028e-08</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>021-SHZL-00412-WJH-201903111603-D.bmp</t>
+          <t>021-SHZL-00429-XSL-201905221035-D.bmp</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0.999559223651886</v>
+        <v>0.9999980926513672</v>
       </c>
       <c r="C276" t="n">
         <v>1</v>
